--- a/target/test-classes/TestData_And_TestOutput.xlsx
+++ b/target/test-classes/TestData_And_TestOutput.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
   <si>
     <t>https://maveric-systems.com/</t>
   </si>
